--- a/db.xlsx
+++ b/db.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\Program\Phyton\app372\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578B90FA-110E-4F74-94D0-9773EC41E885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F14137-8D99-40A2-9A0B-31F022E9F759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{99FEC1FD-22E0-4314-81A2-7C8CCB9DD517}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +105,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -452,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF92D90E-EDA7-47AA-B041-598101B99146}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1251,6 +1257,7 @@
       <c r="F45" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>